--- a/Medical/api_1_0/tmp/大健康免疫评估3.26.xlsx
+++ b/Medical/api_1_0/tmp/大健康免疫评估3.26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.L129LWCESYTQ558\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41EFCBA-531D-4B41-A6F4-8140B5BC4738}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9C3721-162D-4BBC-8F81-3A9ED682CAC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3060" yWindow="3735" windowWidth="24465" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T细胞功能分析（T cell function analysi" sheetId="1" r:id="rId1"/>
@@ -2743,8 +2743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
